--- a/avans.xlsx
+++ b/avans.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>ФИО</t>
   </si>
@@ -31,22 +31,70 @@
     <t>Сорт</t>
   </si>
   <si>
+    <t>Работник1 Работник1</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
     <t>Работник2 Работник2</t>
   </si>
   <si>
-    <t>505.00</t>
-  </si>
-  <si>
-    <t>0.0</t>
+    <t>510</t>
+  </si>
+  <si>
+    <t>470</t>
   </si>
   <si>
     <t>Работник3 Работник3</t>
   </si>
   <si>
-    <t>1010.00</t>
-  </si>
-  <si>
-    <t>1002.00</t>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>123 123</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1060</t>
+  </si>
+  <si>
+    <t>1210</t>
+  </si>
+  <si>
+    <t>1170</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
 </sst>
 </file>
@@ -387,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,21 +469,133 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
